--- a/Manual_Testing/Signup_TestCases.xlsx
+++ b/Manual_Testing/Signup_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amlan\Selenium Projects\nopCommerceTestProject\src\test\resources\nopCommerceTestScenariosAndCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A29E25-9FAB-4B88-9887-25217B60AB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB76E6-3AB9-4B6E-98EB-92AEEDF16EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C94A0931-33A8-4904-AA0B-F28F8B1DDA8B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>TC_RF_001</t>
   </si>
   <si>
     <t>NC_TS_001
@@ -86,9 +83,6 @@
   <si>
     <t>1. User must be prompted "Your registration completed".
 2. User must be navigated to the home page.</t>
-  </si>
-  <si>
-    <t>TC_RF_002</t>
   </si>
   <si>
     <t>Verify Register functionality with all details(Male)</t>
@@ -110,9 +104,6 @@
 4. Click on 'Continue'.(ER - 2)</t>
   </si>
   <si>
-    <t>TC_RF_003</t>
-  </si>
-  <si>
     <t>Verify Register functionality with all details(Female)</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
 4. Click on 'Continue'.(ER - 2)</t>
   </si>
   <si>
-    <t>TC_RF_004</t>
-  </si>
-  <si>
     <t>Verify Register functionality with already registered details</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
   </si>
   <si>
     <t>1. User must be prompted "The specified email already exists".</t>
-  </si>
-  <si>
-    <t>TC_RF_005</t>
   </si>
   <si>
     <t>Verify Register functionality without any details.</t>
@@ -163,9 +148,6 @@
 2. Last name must prompt the user, "Last name is required."
 3. Email must prompt the user, "Email is required."
 4. Confirm Password must prompt the user, "Password is required."</t>
-  </si>
-  <si>
-    <t>TC_RF_006</t>
   </si>
   <si>
     <t>Verify First Name input field with different types of input.</t>
@@ -194,9 +176,6 @@
 4. Click on 'Continue'.(ER - 2)</t>
   </si>
   <si>
-    <t>TC_RF_007</t>
-  </si>
-  <si>
     <t>Verify Last Name input field with different types of input.</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
 2. Fill in only all the fields(TD 1 - TD 8).
 3. Click on 'Register' button (ER - 1)
 4. Click on 'Continue'.(ER - 2)</t>
-  </si>
-  <si>
-    <t>TC_RF_008</t>
   </si>
   <si>
     <t>Verify Email input field with different types of valid input.</t>
@@ -251,9 +227,6 @@
 4. Click on 'Continue'.(ER - 2)</t>
   </si>
   <si>
-    <t>TC_RF_009</t>
-  </si>
-  <si>
     <t>1. Gender - Male
 2. First Name - Amlan
 3. Last Name - Singha
@@ -277,9 +250,6 @@
   </si>
   <si>
     <t>1. Account should not be created. Instead, a warning message must be visible below Email stating "Please enter a valid email address."</t>
-  </si>
-  <si>
-    <t>TC_RF_010</t>
   </si>
   <si>
     <t>Verify Password and Confirm Password input field with different inputs.</t>
@@ -313,9 +283,6 @@
 2. Account should not be created. Instead, a warning message must be visible below confirm password "Password is required.". </t>
   </si>
   <si>
-    <t>TC_RF_011</t>
-  </si>
-  <si>
     <t>Verify Boundaries of Password and Confirm Password.</t>
   </si>
   <si>
@@ -340,9 +307,6 @@
     <t>1. Account should not be created. Instead, a warning message must be visible under Password field stating "Password must meet the following rules: must have at least 6 characters and not greater than 64 characters"</t>
   </si>
   <si>
-    <t>TC_RF_012</t>
-  </si>
-  <si>
     <t>Verify that NewsLetter button enables the newsletter feature.</t>
   </si>
   <si>
@@ -350,9 +314,6 @@
   </si>
   <si>
     <t>1. NewsLetter button should enable the newsletter feature.</t>
-  </si>
-  <si>
-    <t>TC_RF_013</t>
   </si>
   <si>
     <t>Verify that NewsLetter button is not a default feature.</t>
@@ -371,9 +332,6 @@
     <t>1. NewsLetter feature should not be enabled.</t>
   </si>
   <si>
-    <t>TC_RF_014</t>
-  </si>
-  <si>
     <t>Verify signup functionality using Keyboard Keys</t>
   </si>
   <si>
@@ -383,9 +341,6 @@
     <t xml:space="preserve">1. Tab and Arrow Keys button should be able to navigate through every element.
 2. Space and Enter button should be able to select an element and enable inputs for input fields.
 </t>
-  </si>
-  <si>
-    <t>TC_RF_015</t>
   </si>
   <si>
     <t>Verify that all mandatory fields are followed by a Red asterisk sign.</t>
@@ -406,9 +361,6 @@
   </si>
   <si>
     <t>(Register this as a bug during execution)</t>
-  </si>
-  <si>
-    <t>TC_RF_016</t>
   </si>
   <si>
     <t>Verify that placeholders are visible for all input fields.</t>
@@ -425,9 +377,6 @@
   </si>
   <si>
     <t>1. All placeholders should be present and visible in the fields.</t>
-  </si>
-  <si>
-    <t>TC_RF_017</t>
   </si>
   <si>
     <t>Verify that the field names and their respective fields are divided into separate categories.</t>
@@ -451,9 +400,6 @@
     <t>1. All field names and their respective fields should be arranged and segregated in the exact format provided in the test steps.</t>
   </si>
   <si>
-    <t>TC_RF_018</t>
-  </si>
-  <si>
     <t>Verify that the Register button changes its color when cursor is hovered over it.</t>
   </si>
   <si>
@@ -461,12 +407,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Original color should be sky blue and color should change to a darker shade of blue. </t>
-  </si>
-  <si>
-    <t>TC_RF_019</t>
-  </si>
-  <si>
-    <t>Verify Element background UI</t>
   </si>
   <si>
     <t>Verify that the Elements under each category should have a grey banner as a background, highlighting them from the rest of the page
@@ -474,16 +414,10 @@
 Category names should be above the background.</t>
   </si>
   <si>
-    <t>TC_RF_020</t>
-  </si>
-  <si>
     <t>Verify Register form heading</t>
   </si>
   <si>
     <t>1. Verify that the heading of the registration form is "Register" and above all Field categories in a larger font</t>
-  </si>
-  <si>
-    <t>TC_RF_021</t>
   </si>
   <si>
     <t>Verify that valid registration details are correctly shored in the backend Database</t>
@@ -511,9 +445,6 @@
     <t>1. Database must return the customer details that should match the Test Data</t>
   </si>
   <si>
-    <t>TC_RF_022</t>
-  </si>
-  <si>
     <t>Verify that invalid registration details are not shored in the backend Database</t>
   </si>
   <si>
@@ -537,6 +468,147 @@
   </si>
   <si>
     <t>1. Database must return a blank table with no data.</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>NC_STC_001</t>
+  </si>
+  <si>
+    <t>Validate mandatory fields with valid input</t>
+  </si>
+  <si>
+    <t>NC_STC_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Gender(Male) </t>
+  </si>
+  <si>
+    <t>NC_STC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Gender(Female) </t>
+  </si>
+  <si>
+    <t>NC_STC_004</t>
+  </si>
+  <si>
+    <t>Register with existing credentials</t>
+  </si>
+  <si>
+    <t>NC_STC_005</t>
+  </si>
+  <si>
+    <t>Register with empty fields</t>
+  </si>
+  <si>
+    <t>NC_STC_006</t>
+  </si>
+  <si>
+    <t>First Name Component Test</t>
+  </si>
+  <si>
+    <t>NC_STC_007</t>
+  </si>
+  <si>
+    <t>Last Name Component Test</t>
+  </si>
+  <si>
+    <t>NC_STC_008</t>
+  </si>
+  <si>
+    <t>Email Component Test(Valid)</t>
+  </si>
+  <si>
+    <t>NC_STC_009</t>
+  </si>
+  <si>
+    <t>Email Component Test(Invalid)</t>
+  </si>
+  <si>
+    <t>NC_STC_010</t>
+  </si>
+  <si>
+    <t>Password and Confirm Password Component Test</t>
+  </si>
+  <si>
+    <t>NC_STC_011</t>
+  </si>
+  <si>
+    <t>Password and Confirm Password Boundary Value Analysis</t>
+  </si>
+  <si>
+    <t>NC_STC_012</t>
+  </si>
+  <si>
+    <t>NewsLetter Checkbox Component Test(Checked)</t>
+  </si>
+  <si>
+    <t>NC_STC_013</t>
+  </si>
+  <si>
+    <t>NewsLetter Checkbox Component Test(unchecked)</t>
+  </si>
+  <si>
+    <t>NC_STC_014</t>
+  </si>
+  <si>
+    <t>Signup validation using Keyboard Keys</t>
+  </si>
+  <si>
+    <t>NC_STC_015</t>
+  </si>
+  <si>
+    <t>Asterisk sign validation in mandatory fields</t>
+  </si>
+  <si>
+    <t>NC_STC_016</t>
+  </si>
+  <si>
+    <t>Placeholder validations in input fields</t>
+  </si>
+  <si>
+    <t>NC_STC_017</t>
+  </si>
+  <si>
+    <t>Signup components categorization/segregation</t>
+  </si>
+  <si>
+    <t>NC_STC_018</t>
+  </si>
+  <si>
+    <t>Register Button color change validation</t>
+  </si>
+  <si>
+    <t>NC_STC_019</t>
+  </si>
+  <si>
+    <t>Signup components background color validation</t>
+  </si>
+  <si>
+    <t>Verify that the elements under the categories have a separate background color, separating it from the rest of the page.</t>
+  </si>
+  <si>
+    <t>NC_STC_020</t>
+  </si>
+  <si>
+    <t>Register form Heading</t>
+  </si>
+  <si>
+    <t>Verify that the Register form heading is present and clearly visible</t>
+  </si>
+  <si>
+    <t>NC_STC_021</t>
+  </si>
+  <si>
+    <t>Database validation (Valid Credentials)</t>
+  </si>
+  <si>
+    <t>NC_STC_022</t>
+  </si>
+  <si>
+    <t>Database validation (invalid Credentials)</t>
   </si>
 </sst>
 </file>
@@ -932,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB25FAB-FED6-4F2E-B14D-F4FACC10384E}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="57" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="57" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,611 +1016,680 @@
     <col min="3" max="8" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>83</v>
+        <v>121</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>96</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
